--- a/DataAgregation/output/events_data.xlsx
+++ b/DataAgregation/output/events_data.xlsx
@@ -1,25 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dotNet\DataAgregation\DataAgregation\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD981DAD-74A3-4BC0-A30C-17D453938B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Users" sheetId="68" r:id="rId98"/>
-    <sheet name="Revenue" sheetId="70" r:id="rId100"/>
-    <sheet name="Currency Rate" sheetId="71" r:id="rId101"/>
-    <sheet name="Stage Info" sheetId="72" r:id="rId102"/>
-    <sheet name="Item Info" sheetId="73" r:id="rId103"/>
-    <sheet name="Items by date info" sheetId="74" r:id="rId104"/>
-    <sheet name="MAU" sheetId="75" r:id="rId105"/>
-    <sheet name="DAU" sheetId="76" r:id="rId106"/>
+    <sheet name="New Users" sheetId="68" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="70" r:id="rId2"/>
+    <sheet name="Currency Rate" sheetId="71" r:id="rId3"/>
+    <sheet name="Stage Info" sheetId="72" r:id="rId4"/>
+    <sheet name="Item Info" sheetId="73" r:id="rId5"/>
+    <sheet name="MAU" sheetId="75" r:id="rId6"/>
+    <sheet name="DAU" sheetId="76" r:id="rId7"/>
+    <sheet name="Revenue With Sold Currency" sheetId="77" r:id="rId8"/>
+    <sheet name="Items by date info" sheetId="78" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -493,14 +515,22 @@
   </si>
   <si>
     <t>Items sold</t>
+  </si>
+  <si>
+    <t>Spent Currency</t>
+  </si>
+  <si>
+    <t>USD Income</t>
+  </si>
+  <si>
+    <t>Sold Currency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -524,4417 +554,5174 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>14293</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>24041</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>39281</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>48948</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>61871</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>67025</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>80612</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>84607</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>93840</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>96793</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>109291</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>107951</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>120947</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>117673</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>130479</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>131732</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>137963</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>141484</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>144201</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>151926</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>149781</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>155368</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>159224</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>160978</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>166416</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>164780</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>168471</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>166719</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>172870</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>170295</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>8158</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>16459</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>22851</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>32286</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>40327</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>48658</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>52444</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>63805</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>69643</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>78399</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>89573</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>95255</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>99971</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>109761</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>116508</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>124544</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>136597</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>145259</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>153276</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>160405</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>168752</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>175129</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>180478</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>193546</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>198501</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>208648</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>214538</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>227965</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>230759</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>247127</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
-        <v>0.08697228144989338</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>8.6972281449893385E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
-        <v>0.08650566315402203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>8.6505663154022028E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
-        <v>0.0866585763586029</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>8.6658576358602898E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0">
-        <v>0.08666451924625544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>8.6664519246255442E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
-        <v>0.0866539172289312</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>8.6653917228931204E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0">
-        <v>0.08638332623206932</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B7">
+        <v>8.6383326232069318E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
-        <v>0.08660127481092506</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8">
+        <v>8.6601274810925055E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
-        <v>0.08657101183813304</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>8.6571011838133038E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
-        <v>0.08655712847537254</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>8.6557128475372544E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0">
-        <v>0.08682011727509814</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11">
+        <v>8.6820117275098141E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0">
-        <v>0.0866167696517846</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>8.6616769651784595E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0">
-        <v>0.08673304469362762</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>8.6733044693627623E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0">
-        <v>0.08658833923026621</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B14">
+        <v>8.6588339230266209E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0">
-        <v>0.0868008683171018</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>8.6800868317101806E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0">
-        <v>0.08667718128794191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B16">
+        <v>8.6677181287941912E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0">
-        <v>0.08673403299603741</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17">
+        <v>8.6734032996037408E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="0">
-        <v>0.08662128355776517</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>8.6621283557765175E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0">
-        <v>0.08665867248929138</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B19">
+        <v>8.6658672489291377E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0">
-        <v>0.08660517282782196</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B20">
+        <v>8.6605172827821958E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0">
-        <v>0.08667307868956985</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="B21">
+        <v>8.6673078689569846E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0">
-        <v>0.08670021604153341</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B22">
+        <v>8.6700216041533412E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="0">
-        <v>0.08656510585292794</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B23">
+        <v>8.656510585292794E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="0">
-        <v>0.08665557532151698</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B24">
+        <v>8.6655575321516978E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="0">
-        <v>0.0865896269254343</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="B25">
+        <v>8.6589626925434302E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0">
-        <v>0.08663663860264753</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="B26">
+        <v>8.6636638602647531E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0">
-        <v>0.08662194028363612</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="B27">
+        <v>8.6621940283636123E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="0">
-        <v>0.08668814966714818</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B28">
+        <v>8.6688149667148176E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="0">
-        <v>0.08668727706921597</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="B29">
+        <v>8.6687277069215973E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="0">
-        <v>0.08663490490242456</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="B30">
+        <v>8.6634904902424564E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="0">
-        <v>0.08657574462420213</v>
+      <c r="B31">
+        <v>8.6575744624202131E-2</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1220869</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1220869</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>708718</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>7087180</v>
       </c>
-      <c r="F2" s="0">
-        <v>614065.2396243967</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="F2">
+        <v>614065.23962439667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1221016</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>1221016</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>623193</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>6231930</v>
       </c>
-      <c r="F3" s="0">
-        <v>539963.492708911</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="F3">
+        <v>539963.49270891096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1768476</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>1768476</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>494665</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>4946650</v>
       </c>
-      <c r="F4" s="0">
-        <v>428605.921069931</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="F4">
+        <v>428605.92106993101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>478992</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>478992</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>459717</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>4597170</v>
       </c>
-      <c r="F5" s="0">
-        <v>398326.4180463277</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="F5">
+        <v>398326.41804632772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>1417783</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>1417783</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>354346</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>3543460</v>
       </c>
-      <c r="F6" s="0">
-        <v>307028.9111095459</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="F6">
+        <v>307028.91110954591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>540402</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>540402</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>313966</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>3139660</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>272041.33980242483</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>380157</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>380157</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>285117</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>2851170</v>
       </c>
-      <c r="F8" s="0">
-        <v>247044.9449959295</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+      <c r="F8">
+        <v>247044.94499592949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>275387</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>275387</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>264330</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>2643300</v>
       </c>
-      <c r="F9" s="0">
-        <v>229033.0233926453</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+      <c r="F9">
+        <v>229033.02339264529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>291697</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>291697</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>241989</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>2419890</v>
       </c>
-      <c r="F10" s="0">
-        <v>209674.9449107858</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+      <c r="F10">
+        <v>209674.94491078579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>373512</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>373512</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>212892</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>2128920</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>184463.00922678725</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>328661</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>328661</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>186849</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>1868490</v>
       </c>
-      <c r="F12" s="0">
-        <v>161896.7709744246</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="F12">
+        <v>161896.77097442461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>239505</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>239505</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>167825</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1678250</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>145412.24618452764</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>298021</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>298021</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>143469</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1434690</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>124307.65933142185</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>216512</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>216512</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>125595</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>1255950</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>108819.92231113021</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>226322</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>226322</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>106260</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>1062600</v>
       </c>
-      <c r="F16" s="0">
-        <v>92066.80940529227</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="F16">
+        <v>92066.809405292268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>100776</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>100776</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>97774</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>977740</v>
       </c>
-      <c r="F17" s="0">
-        <v>84713.80380780941</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="F17">
+        <v>84713.803807809411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>252987</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>252987</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>76056</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>760560</v>
       </c>
-      <c r="F18" s="0">
-        <v>65895.7635095464</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+      <c r="F18">
+        <v>65895.763509546407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>72542</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>72542</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>69596</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>695960</v>
       </c>
-      <c r="F19" s="0">
-        <v>60298.60953244018</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="F19">
+        <v>60298.609532440183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>154206</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>154206</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>55638</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>556380</v>
       </c>
-      <c r="F20" s="0">
-        <v>48204.66690054017</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+      <c r="F20">
+        <v>48204.666900540171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>63259</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>63259</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>49873</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>498730</v>
       </c>
-      <c r="F21" s="0">
-        <v>43209.59614229042</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
+      <c r="F21">
+        <v>43209.596142290422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>122836</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>122836</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>38286</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>382860</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>33170.44152507231</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>50217</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>50217</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>33576</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>335760</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>29089.596136357246</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>53792</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>53792</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>28437</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>284370</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>24637.141259423828</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>66054</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>66054</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>21859</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>218590</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>18937.89808995917</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>33386</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>33386</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>18449</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>184490</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>15983.504378242986</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>40005</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>40005</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>14344</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>143440</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>12427.045414755397</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>22715</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>22715</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>11887</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>118870</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>10298.325908812587</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>34842</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>34842</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>8107</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>81070</v>
       </c>
-      <c r="F29" s="0">
-        <v>7023.55735803785</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
+      <c r="F29">
+        <v>7023.5573580378496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>13941</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>13941</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>6514</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>65140</v>
       </c>
-      <c r="F30" s="0">
-        <v>5643.379645154676</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
+      <c r="F30">
+        <v>5643.3796451546759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>8287</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>8287</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>5564</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>55640</v>
       </c>
-      <c r="F31" s="0">
-        <v>4820.30206783195</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
+      <c r="F31">
+        <v>4820.3020678319499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>9096</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>9096</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>4451</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>44510</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>3856.0416338954287</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>4545</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>4545</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>3883</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>38830</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>3363.9421462175746</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>4299</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>4299</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>3294</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>32940</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>2853.648045263908</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>4970</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>4970</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>2627</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>26270</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>2275.7962029075693</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>3232</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>3232</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>2189</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>21890</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>1896.4096949417171</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>5047</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>5047</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>1558</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>15580</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>1349.7364524495958</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>1793</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>1793</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>1324</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>13240</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>1147.0110342366313</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>1564</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>1564</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>1105</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>11050</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>957.2903581300061</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>1705</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>1705</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>872</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>8720</v>
       </c>
-      <c r="F40" s="0">
-        <v>755.4195035520041</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
+      <c r="F40">
+        <v>755.41950355200413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>2128</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>2128</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>567</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>5670</v>
       </c>
-      <c r="F41" s="0">
-        <v>491.1939659375821</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
+      <c r="F41">
+        <v>491.19396593758211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>1344</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>1344</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>336</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>3360</v>
       </c>
-      <c r="F42" s="0">
-        <v>291.0659877894245</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
+      <c r="F42">
+        <v>291.06598778942453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>333</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>333</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>274</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>2740</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43">
         <v>237.36889929091404</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>280</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>280</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>236</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>2360</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>204.45242131700994</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>235</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>235</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>201</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>2010</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>174.12588447174716</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>256</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>256</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>177</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>1770</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46">
         <v>153.32498269388634</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>200</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>200</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>123</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>1230</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47">
         <v>106.54743514902297</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>206</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>206</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>89</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>890</v>
       </c>
-      <c r="F48" s="0">
-        <v>77.09867602890616</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
+      <c r="F48">
+        <v>77.098676028906155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>78</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>78</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>74</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>740</v>
       </c>
-      <c r="F49" s="0">
-        <v>64.10669968354915</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
+      <c r="F49">
+        <v>64.106699683549152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>83</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>83</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>66</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>660</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50">
         <v>57.177332937118294</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>73</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>73</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>53</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>530</v>
       </c>
-      <c r="F51" s="0">
-        <v>45.9148223689016</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
+      <c r="F51">
+        <v>45.914822368901604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>113</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>113</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>40</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>400</v>
       </c>
-      <c r="F52" s="0">
-        <v>34.64947159570691</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
+      <c r="F52">
+        <v>34.649471595706913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>43</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>43</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>32</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>320</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53">
         <v>27.714954847456067</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>29</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>29</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>28</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>280</v>
       </c>
-      <c r="F54" s="0">
-        <v>24.24839441356574</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
+      <c r="F54">
+        <v>24.248394413565741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>36</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>36</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>22</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>220</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55">
         <v>19.054517461297376</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>21</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>21</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>170</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56">
         <v>14.727019882749266</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>19</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>19</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>17</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>170</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57">
         <v>14.7272639704791</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>15</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>15</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>14</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>140</v>
       </c>
-      <c r="F58" s="0">
-        <v>12.12934757130373</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
+      <c r="F58">
+        <v>12.129347571303731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>13</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>13</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>13</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>130</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59">
         <v>11.263623045416303</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>17</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>17</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>11</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>110</v>
       </c>
-      <c r="F60" s="0">
-        <v>9.529648446729755</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
+      <c r="F60">
+        <v>9.5296484467297553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>13</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>13</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>10</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61">
         <v>100</v>
       </c>
-      <c r="F61" s="0">
-        <v>8.6622784516038</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
+      <c r="F61">
+        <v>8.6622784516038003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>18</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>18</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>8</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>80</v>
       </c>
-      <c r="F62" s="0">
-        <v>6.930570428186022</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
+      <c r="F62">
+        <v>6.9305704281860221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>8</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63">
         <v>6</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63">
         <v>60</v>
       </c>
-      <c r="F63" s="0">
-        <v>5.196661366214004</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
+      <c r="F63">
+        <v>5.1966613662140038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>8</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>8</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>6</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64">
         <v>60</v>
       </c>
-      <c r="F64" s="0">
-        <v>5.196712277049737</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
+      <c r="F64">
+        <v>5.1967122770497367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>8</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>8</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>40</v>
       </c>
-      <c r="F65" s="0">
-        <v>3.46503251359156</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
+      <c r="F65">
+        <v>3.4650325135915598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66">
         <v>20</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66">
         <v>1.7322248158227118</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>10</v>
       </c>
-      <c r="F67" s="0">
-        <v>0.8657574462420213</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
+      <c r="F67">
+        <v>0.86575744624202133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68">
         <v>10</v>
       </c>
-      <c r="F68" s="0">
-        <v>0.8657574462420213</v>
+      <c r="F68">
+        <v>0.86575744624202133</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>8116</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1298560</v>
       </c>
-      <c r="D2" s="0">
-        <v>112514.1443322785</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2">
+        <v>112514.14433227851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>56014</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>560140</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>48533.122929872865</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>6288</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>4087200</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>354134.76436482684</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>6530</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>3330300</v>
       </c>
-      <c r="D5" s="0">
-        <v>288551.9675669178</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5">
+        <v>288551.96756691783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>7310</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>1754400</v>
       </c>
-      <c r="D6" s="0">
-        <v>152010.7703464421</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="D6">
+        <v>152010.77034644209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>14072</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>1407200</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>121927.42312030277</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>10692</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>1283040</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>111168.75329949813</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>6243</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>4120380</v>
       </c>
-      <c r="D9" s="0">
-        <v>357007.142722546</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="D9">
+        <v>357007.14272254601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>6514</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>3257000</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>282200.52097981924</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>56788</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>1135760</v>
       </c>
-      <c r="D11" s="0">
-        <v>98406.91923405693</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="D11">
+        <v>98406.919234056928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>11951</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>1314610</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>113904.486794699</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>7232</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>1952640</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>169186.66397046918</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>6519</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>2607600</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>225937.15397536173</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>6581</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>2764020</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>239487.55651262682</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>6561</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>3608550</v>
       </c>
-      <c r="D16" s="0">
-        <v>312665.1656831164</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="D16">
+        <v>312665.16568311641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>39496</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>2369760</v>
       </c>
-      <c r="D17" s="0">
-        <v>205328.0556687648</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="D17">
+        <v>205328.05566876481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>6697</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>2410920</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>208891.65779464325</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>6194</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>3902220</v>
       </c>
-      <c r="D19" s="0">
-        <v>338106.7654517308</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="D19">
+        <v>338106.76545173081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>6208</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>4345600</v>
       </c>
-      <c r="D20" s="0">
-        <v>376525.843196822</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="D20">
+        <v>376525.84319682198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>6937</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>2358580</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>204355.20333072194</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>56360</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>2254400</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>195331.32691974888</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>7772</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>1476680</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>127947.73631183086</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>6361</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>4452700</v>
       </c>
-      <c r="D24" s="0">
-        <v>385803.2657026764</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="D24">
+        <v>385803.26570267638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>6467</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>3944870</v>
       </c>
-      <c r="D25" s="0">
-        <v>341808.1661186817</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="D25">
+        <v>341808.16611868172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>6691</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>2274940</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>197111.17761698063</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>6502</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>3706140</v>
       </c>
-      <c r="D27" s="0">
-        <v>321115.0773021237</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="D27">
+        <v>321115.07730212371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>7118</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>1921860</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>166517.91077295505</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>8045</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>1287200</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>111531.10784352878</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>6389</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>4216740</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>365359.4320323235</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>6828</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>2389800</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>207063.72976994567</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>8184</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>1309440</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>113455.50643510903</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>7295</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>1750800</v>
       </c>
-      <c r="D33" s="0">
-        <v>151697.1367459884</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="D33">
+        <v>151697.13674598839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>6683</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>2873690</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>248991.56489937237</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>6441</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>3671370</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>318109.34523274266</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>6329</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>3417660</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>296127.97947195574</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>6675</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>3137250</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>271824.03898214444</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>7196</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>1942920</v>
       </c>
-      <c r="D38" s="0">
-        <v>168343.8603453572</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="D38">
+        <v>168343.86034535721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>6452</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>3032440</v>
       </c>
-      <c r="D39" s="0">
-        <v>262743.0734389629</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="D39">
+        <v>262743.07343896292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>6702</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>2278680</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>197438.08671692197</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>6840</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>2257200</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>195572.43759552372</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>6475</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>3237500</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>280512.65137033025</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>56377</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>563770</v>
       </c>
-      <c r="D43" s="0">
-        <v>48847.40392478979</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="D43">
+        <v>48847.403924789789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>6712</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>2147840</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>186099.91453047429</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>6563</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>2690830</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>233148.47554186502</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>6519</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>2998740</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>259827.43993354874</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>6176</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>4199680</v>
       </c>
-      <c r="D47" s="0">
-        <v>363880.6401889421</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="D47">
+        <v>363880.64018894208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>6522</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>3847980</v>
       </c>
-      <c r="D48" s="0">
-        <v>333406.577565266</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D48">
+        <v>333406.57756526599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>6474</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>3754920</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>325345.0547523477</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>14194</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>283880</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>24596.83983073827</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>6087</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>4017420</v>
       </c>
-      <c r="D51" s="0">
-        <v>348090.6609435969</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="D51">
+        <v>348090.66094359691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>6186</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>4020900</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>348391.0410796082</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>6532</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>2808760</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>243367.37345594072</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>6658</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>2463460</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>213447.55458587132</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>17076</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>1536840</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>133159.32260347833</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>6464</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>2520960</v>
       </c>
-      <c r="D56" s="0">
-        <v>218427.0695463138</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="D56">
+        <v>218427.06954631381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>6522</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>3326220</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>288195.44939980615</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>6619</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>3574260</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>309693.9122626296</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>6491</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>3375320</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>292450.39054636523</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>6959</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>2018110</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>174859.61596184573</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>6817</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>2317780</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>200821.59459782593</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>8044</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>1367480</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>118485.71953093051</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>6575</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>3484750</v>
       </c>
-      <c r="D63" s="0">
-        <v>301933.0461902694</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="D63">
+        <v>301933.04619026941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>6287</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>2954890</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>256026.21572733883</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>6488</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>2919600</v>
       </c>
-      <c r="D65" s="0">
-        <v>252971.6865074702</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="D65">
+        <v>252971.68650747021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>6607</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>2841010</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>246158.62238998822</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>56360</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>563600</v>
       </c>
-      <c r="D67" s="0">
-        <v>48832.86090533279</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="D67">
+        <v>48832.860905332789</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>9721</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>1263730</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>109496.81055626296</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>6499</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>3184510</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69">
         <v>275926.48573683086</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>6195</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>4212600</v>
       </c>
-      <c r="D70" s="0">
-        <v>364992.1354745487</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="D70">
+        <v>364992.13547454868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>6625</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>2517500</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>218131.52507445824</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>8721</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>1308150</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72">
         <v>113344.23769676976</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>7459</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>1640980</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73">
         <v>142180.40066970815</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>39584</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>2375040</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74">
         <v>205784.9520538077</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>6893</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>2067900</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75">
         <v>179173.86775519195</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>6357</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>2797080</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76">
         <v>242352.6013198244</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>6319</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>3475450</v>
       </c>
-      <c r="D77" s="0">
-        <v>301132.2725059961</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="D77">
+        <v>301132.27250599611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>6526</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>2675660</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78">
         <v>231834.67959989177</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>8632</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>1294800</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79">
         <v>112189.33086084864</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>9881</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>1284530</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80">
         <v>111298.32703453372</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>7895</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>1342150</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81">
         <v>116289.17306419516</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>7991</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>1358470</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82">
         <v>117703.16340049806</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>6429</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>3857400</v>
       </c>
-      <c r="D83" s="0">
-        <v>334224.3424737674</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="D83">
+        <v>334224.34247376741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>7121</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>2136300</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84">
         <v>185097.67757822404</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>6271</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>4389700</v>
       </c>
-      <c r="D85" s="0">
-        <v>380346.4905227156</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="D85">
+        <v>380346.49052271561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>56703</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>1701090</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86">
         <v>147390.89345209702</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>10662</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>1066200</v>
       </c>
-      <c r="D87" s="0">
-        <v>92380.38401664968</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="D87">
+        <v>92380.384016649681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>8527</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>1279050</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88">
         <v>110821.77715617362</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>6568</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>2627200</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89">
         <v>227631.30625017599</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>6289</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>3899180</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90">
         <v>337842.83450086205</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>6644</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>2391840</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91">
         <v>207241.57564861514</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>56428</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>564280</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92">
         <v>48891.699438122254</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>135</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>56475</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93">
         <v>564750</v>
       </c>
-      <c r="D93" s="0">
-        <v>48932.32712227184</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="D93">
+        <v>48932.327122271839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>136</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>13965</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94">
         <v>1396500</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94">
         <v>120999.47074515004</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>137</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>6464</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95">
         <v>4072320</v>
       </c>
-      <c r="D95" s="0">
-        <v>352847.4822785258</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="D95">
+        <v>352847.48227852577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>138</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>17108</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96">
         <v>1539720</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96">
         <v>133409.03547984964</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>139</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>6156</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97">
         <v>4186080</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97">
         <v>362704.8765550878</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>8259</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98">
         <v>1321440</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98">
         <v>114496.57483503706</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>6594</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99">
         <v>2571660</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99">
         <v>222819.0502155986</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>6415</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100">
         <v>3207500</v>
       </c>
-      <c r="D100" s="0">
-        <v>277909.3026291239</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="D100">
+        <v>277909.30262912391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>22766</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101">
         <v>1821280</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101">
         <v>157803.97514393576</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>6500</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102">
         <v>3315000</v>
       </c>
-      <c r="D102" s="0">
-        <v>287236.3516698953</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="D102">
+        <v>287236.35166989529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>6307</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103">
         <v>3405780</v>
       </c>
-      <c r="D103" s="0">
-        <v>295090.6574020676</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="D103">
+        <v>295090.65740206762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>6602</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104">
         <v>2970900</v>
       </c>
-      <c r="D104" s="0">
-        <v>257415.4770859671</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="D104">
+        <v>257415.47708596711</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>30038</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105">
         <v>2102660</v>
       </c>
-      <c r="D105" s="0">
-        <v>182184.2849620059</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="D105">
+        <v>182184.28496200591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>7343</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106">
         <v>1982610</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106">
         <v>171783.3855028275</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>6453</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107">
         <v>3871800</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107">
         <v>335471.7423073774</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>7051</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108">
         <v>2044790</v>
       </c>
-      <c r="D108" s="0">
-        <v>177174.2124124577</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="D108">
+        <v>177174.21241245771</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>6481</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109">
         <v>3629360</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109">
         <v>314462.31904466223</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>6131</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110">
         <v>4169080</v>
       </c>
-      <c r="D110" s="0">
-        <v>361229.9407013793</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="D110">
+        <v>361229.94070137932</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>153</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111">
         <v>6670</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111">
         <v>2534600</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111">
         <v>219613.35697954564</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>154</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112">
         <v>6508</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>3774640</v>
       </c>
-      <c r="D112" s="0">
-        <v>327052.7545693647</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="D112">
+        <v>327052.75456936471</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113">
         <v>12063</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>1326930</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113">
         <v>114971.10401061297</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>156</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114">
         <v>6728</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>2354800</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114">
         <v>204030.53563442337</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>28304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>56313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>69959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>83842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>98069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>112334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>126433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>140467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>154367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>168802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>182488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>196355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>210695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>224616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>238586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>253107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>267098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>281236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>294807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>309316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>323017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>337275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>351768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>365458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>379561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>393124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>407666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>421580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
-        <v>1655</v>
-      </c>
-      <c r="C2" s="0">
-        <v>547810</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>8158</v>
+      </c>
+      <c r="C2">
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
-        <v>3316</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1097620</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>16459</v>
+      </c>
+      <c r="C3">
+        <v>190265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
-        <v>5212</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1674140</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>22851</v>
+      </c>
+      <c r="C4">
+        <v>263690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0">
-        <v>7242</v>
-      </c>
-      <c r="C5" s="0">
-        <v>2257960</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>32286</v>
+      </c>
+      <c r="C5">
+        <v>372540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
-        <v>9260</v>
-      </c>
-      <c r="C6" s="0">
-        <v>2807930</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>40327</v>
+      </c>
+      <c r="C6">
+        <v>465380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0">
-        <v>11541</v>
-      </c>
-      <c r="C7" s="0">
-        <v>3386020</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B7">
+        <v>48658</v>
+      </c>
+      <c r="C7">
+        <v>563280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
-        <v>14137</v>
-      </c>
-      <c r="C8" s="0">
-        <v>4001480</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8">
+        <v>52444</v>
+      </c>
+      <c r="C8">
+        <v>605580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
-        <v>17083</v>
-      </c>
-      <c r="C9" s="0">
-        <v>4718450</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>63805</v>
+      </c>
+      <c r="C9">
+        <v>737025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
-        <v>19866</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5256480</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>69643</v>
+      </c>
+      <c r="C10">
+        <v>804590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0">
-        <v>22941</v>
-      </c>
-      <c r="C11" s="0">
-        <v>5942550</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11">
+        <v>78399</v>
+      </c>
+      <c r="C11">
+        <v>903005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0">
-        <v>26041</v>
-      </c>
-      <c r="C12" s="0">
-        <v>6530130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>89573</v>
+      </c>
+      <c r="C12">
+        <v>1034130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0">
-        <v>29519</v>
-      </c>
-      <c r="C13" s="0">
-        <v>7218500</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>95255</v>
+      </c>
+      <c r="C13">
+        <v>1098255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0">
-        <v>32519</v>
-      </c>
-      <c r="C14" s="0">
-        <v>7783470</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B14">
+        <v>99971</v>
+      </c>
+      <c r="C14">
+        <v>1154555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0">
-        <v>36180</v>
-      </c>
-      <c r="C15" s="0">
-        <v>8459790</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>109761</v>
+      </c>
+      <c r="C15">
+        <v>1264515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0">
-        <v>39631</v>
-      </c>
-      <c r="C16" s="0">
-        <v>9082330</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B16">
+        <v>116508</v>
+      </c>
+      <c r="C16">
+        <v>1344160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0">
-        <v>43762</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9841280</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17">
+        <v>124544</v>
+      </c>
+      <c r="C17">
+        <v>1435930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="0">
-        <v>47043</v>
-      </c>
-      <c r="C18" s="0">
-        <v>10403810</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>136597</v>
+      </c>
+      <c r="C18">
+        <v>1576945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0">
-        <v>51042</v>
-      </c>
-      <c r="C19" s="0">
-        <v>11104200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B19">
+        <v>145259</v>
+      </c>
+      <c r="C19">
+        <v>1676220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0">
-        <v>54683</v>
-      </c>
-      <c r="C20" s="0">
-        <v>11871250</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B20">
+        <v>153276</v>
+      </c>
+      <c r="C20">
+        <v>1769825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0">
-        <v>58298</v>
-      </c>
-      <c r="C21" s="0">
-        <v>12365020</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="B21">
+        <v>160405</v>
+      </c>
+      <c r="C21">
+        <v>1850690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0">
-        <v>62502</v>
-      </c>
-      <c r="C22" s="0">
-        <v>13081230</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B22">
+        <v>168752</v>
+      </c>
+      <c r="C22">
+        <v>1946385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="0">
-        <v>66194</v>
-      </c>
-      <c r="C23" s="0">
-        <v>13893740</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B23">
+        <v>175129</v>
+      </c>
+      <c r="C23">
+        <v>2023090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="0">
-        <v>70930</v>
-      </c>
-      <c r="C24" s="0">
-        <v>14634150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B24">
+        <v>180478</v>
+      </c>
+      <c r="C24">
+        <v>2082705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="0">
-        <v>73723</v>
-      </c>
-      <c r="C25" s="0">
-        <v>14943510</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="B25">
+        <v>193546</v>
+      </c>
+      <c r="C25">
+        <v>2235210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0">
-        <v>78192</v>
-      </c>
-      <c r="C26" s="0">
-        <v>15830870</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="B26">
+        <v>198501</v>
+      </c>
+      <c r="C26">
+        <v>2291190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0">
-        <v>82488</v>
-      </c>
-      <c r="C27" s="0">
-        <v>16459660</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="B27">
+        <v>208648</v>
+      </c>
+      <c r="C27">
+        <v>2408720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="0">
-        <v>86512</v>
-      </c>
-      <c r="C28" s="0">
-        <v>17359080</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B28">
+        <v>214538</v>
+      </c>
+      <c r="C28">
+        <v>2474825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="0">
-        <v>90842</v>
-      </c>
-      <c r="C29" s="0">
-        <v>17911140</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="B29">
+        <v>227965</v>
+      </c>
+      <c r="C29">
+        <v>2629740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="0">
-        <v>93981</v>
-      </c>
-      <c r="C30" s="0">
-        <v>18427600</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="B30">
+        <v>230759</v>
+      </c>
+      <c r="C30">
+        <v>2663580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="0">
-        <v>98739</v>
-      </c>
-      <c r="C31" s="0">
-        <v>19285550</v>
+      <c r="B31">
+        <v>247127</v>
+      </c>
+      <c r="C31">
+        <v>2854460</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>33</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B2">
+        <v>1655</v>
+      </c>
+      <c r="C2">
+        <v>547810</v>
+      </c>
+      <c r="D2">
+        <v>47644.285501066101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B3">
+        <v>3316</v>
+      </c>
+      <c r="C3">
+        <v>1097620</v>
+      </c>
+      <c r="D3">
+        <v>94950.345991117661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B4">
+        <v>5212</v>
+      </c>
+      <c r="C4">
+        <v>1674140</v>
+      </c>
+      <c r="D4">
+        <v>145078.5890249915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43104</v>
+      </c>
+      <c r="B5">
+        <v>7242</v>
+      </c>
+      <c r="C5">
+        <v>2257960</v>
+      </c>
+      <c r="D5">
+        <v>195685.01787727492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B6">
+        <v>9260</v>
+      </c>
+      <c r="C6">
+        <v>2807930</v>
+      </c>
+      <c r="D6">
+        <v>243318.13380463279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43106</v>
+      </c>
+      <c r="B7">
+        <v>11541</v>
+      </c>
+      <c r="C7">
+        <v>3386020</v>
+      </c>
+      <c r="D7">
+        <v>292495.67028831132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B8">
+        <v>14137</v>
+      </c>
+      <c r="C8">
+        <v>4001480</v>
+      </c>
+      <c r="D8">
+        <v>346533.26913042046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B9">
+        <v>17083</v>
+      </c>
+      <c r="C9">
+        <v>4718450</v>
+      </c>
+      <c r="D9">
+        <v>408480.99080763879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43109</v>
+      </c>
+      <c r="B10">
+        <v>19866</v>
+      </c>
+      <c r="C10">
+        <v>5256480</v>
+      </c>
+      <c r="D10">
+        <v>454985.81468822638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43110</v>
+      </c>
+      <c r="B11">
+        <v>22941</v>
+      </c>
+      <c r="C11">
+        <v>5942550</v>
+      </c>
+      <c r="D11">
+        <v>515932.88791313453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B12">
+        <v>26041</v>
+      </c>
+      <c r="C12">
+        <v>6530130</v>
+      </c>
+      <c r="D12">
+        <v>565618.76600620814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B13">
+        <v>29519</v>
+      </c>
+      <c r="C13">
+        <v>7218500</v>
+      </c>
+      <c r="D13">
+        <v>626082.48312095099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43113</v>
+      </c>
+      <c r="B14">
+        <v>32519</v>
+      </c>
+      <c r="C14">
+        <v>7783470</v>
+      </c>
+      <c r="D14">
+        <v>673957.74074860022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43114</v>
+      </c>
+      <c r="B15">
+        <v>36180</v>
+      </c>
+      <c r="C15">
+        <v>8459790</v>
+      </c>
+      <c r="D15">
+        <v>734317.11778033478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B16">
+        <v>39631</v>
+      </c>
+      <c r="C16">
+        <v>9082330</v>
+      </c>
+      <c r="D16">
+        <v>787230.7639269135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B17">
+        <v>43762</v>
+      </c>
+      <c r="C17">
+        <v>9841280</v>
+      </c>
+      <c r="D17">
+        <v>853573.90424324304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43117</v>
+      </c>
+      <c r="B18">
+        <v>47043</v>
+      </c>
+      <c r="C18">
+        <v>10403810</v>
+      </c>
+      <c r="D18">
+        <v>901191.37609111285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B19">
+        <v>51042</v>
+      </c>
+      <c r="C19">
+        <v>11104200</v>
+      </c>
+      <c r="D19">
+        <v>962275.23105558939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B20">
+        <v>54683</v>
+      </c>
+      <c r="C20">
+        <v>11871250</v>
+      </c>
+      <c r="D20">
+        <v>1028111.6579322815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43120</v>
+      </c>
+      <c r="B21">
+        <v>58298</v>
+      </c>
+      <c r="C21">
+        <v>12365020</v>
+      </c>
+      <c r="D21">
+        <v>1071714.3514581048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43121</v>
+      </c>
+      <c r="B22">
+        <v>62502</v>
+      </c>
+      <c r="C22">
+        <v>13081230</v>
+      </c>
+      <c r="D22">
+        <v>1134145.4670889881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B23">
+        <v>66194</v>
+      </c>
+      <c r="C23">
+        <v>13893740</v>
+      </c>
+      <c r="D23">
+        <v>1202713.0737930592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43123</v>
+      </c>
+      <c r="B24">
+        <v>70930</v>
+      </c>
+      <c r="C24">
+        <v>14634150</v>
+      </c>
+      <c r="D24">
+        <v>1268130.6875913776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43124</v>
+      </c>
+      <c r="B25">
+        <v>73723</v>
+      </c>
+      <c r="C25">
+        <v>14943510</v>
+      </c>
+      <c r="D25">
+        <v>1293952.9558564967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43125</v>
+      </c>
+      <c r="B26">
+        <v>78192</v>
+      </c>
+      <c r="C26">
+        <v>15830870</v>
+      </c>
+      <c r="D26">
+        <v>1371533.3629554948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43126</v>
+      </c>
+      <c r="B27">
+        <v>82488</v>
+      </c>
+      <c r="C27">
+        <v>16459660</v>
+      </c>
+      <c r="D27">
+        <v>1425767.6856089542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43127</v>
+      </c>
+      <c r="B28">
+        <v>86512</v>
+      </c>
+      <c r="C28">
+        <v>17359080</v>
+      </c>
+      <c r="D28">
+        <v>1504826.5251239985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B29">
+        <v>90842</v>
+      </c>
+      <c r="C29">
+        <v>17911140</v>
+      </c>
+      <c r="D29">
+        <v>1552667.955805517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B30">
+        <v>93981</v>
+      </c>
+      <c r="C30">
+        <v>18427600</v>
+      </c>
+      <c r="D30">
+        <v>1596473.3735799186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B31">
+        <v>98739</v>
+      </c>
+      <c r="C31">
+        <v>19285550</v>
+      </c>
+      <c r="D31">
+        <v>1669660.8517372813</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0">
-        <v>14293</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>28304</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0">
-        <v>42236</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>56313</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>69959</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0">
-        <v>83842</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0">
-        <v>98069</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0">
-        <v>112334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0">
-        <v>126433</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0">
-        <v>140467</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0">
-        <v>154367</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0">
-        <v>168802</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0">
-        <v>182488</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0">
-        <v>196355</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0">
-        <v>210695</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0">
-        <v>224616</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0">
-        <v>238586</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0">
-        <v>253107</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0">
-        <v>267098</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0">
-        <v>281236</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0">
-        <v>294807</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0">
-        <v>309316</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0">
-        <v>323017</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="0">
-        <v>337275</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="0">
-        <v>351768</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0">
-        <v>365458</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0">
-        <v>379561</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0">
-        <v>393124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0">
-        <v>407666</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0">
-        <v>421580</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>